--- a/ValueSet-MedPrescriptionCancelReasonVS.xlsx
+++ b/ValueSet-MedPrescriptionCancelReasonVS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T00:44:39+00:00</t>
+    <t>2023-06-02T10:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-MedPrescriptionCancelReasonVS.xlsx
+++ b/ValueSet-MedPrescriptionCancelReasonVS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-02T10:26:30+00:00</t>
+    <t>2023-08-10T18:35:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -224,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ValueSet-MedPrescriptionCancelReasonVS.xlsx
+++ b/ValueSet-MedPrescriptionCancelReasonVS.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T18:35:32+00:00</t>
+    <t>2023-08-10T18:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
